--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1376D678-FBFD-DA45-9F96-C5B8AF83ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F00581-059C-7741-948B-FFD21D88E6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="10740" yWindow="6420" windowWidth="27660" windowHeight="15180" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,30 +48,6 @@
   </si>
   <si>
     <t>탄환 4발 중 1발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 기준 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>World</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드 기준 공간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -113,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +99,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,9 +135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,7 +453,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -516,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -530,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>700</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +515,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -561,28 +528,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="16" customHeight="1">
@@ -620,9 +573,6 @@
       <c r="D13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F00581-059C-7741-948B-FFD21D88E6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E3C32-8EA0-8949-BDC1-3F3DF676576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="6420" windowWidth="27660" windowHeight="15180" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="8920" yWindow="5680" windowWidth="27660" windowHeight="12620" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>ProjectileDataId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBounce</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -474,8 +478,8 @@
     <col min="15" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="54" customHeight="1"/>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="54" customHeight="1"/>
+    <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,10 +490,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>600</v>
       </c>
@@ -500,6 +507,9 @@
         <v>15</v>
       </c>
       <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>200</v>
       </c>
     </row>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E3C32-8EA0-8949-BDC1-3F3DF676576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDBFA63-417A-2D4B-8754-64DBC9F0145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8920" yWindow="5680" windowWidth="27660" windowHeight="12620" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MaxBounce</t>
+    <t>MaxBounceCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -465,7 +465,8 @@
     <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2"/>
-    <col min="4" max="5" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDBFA63-417A-2D4B-8754-64DBC9F0145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0714B7AD-C16B-C042-8773-B966FF9CFF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="5680" windowWidth="27660" windowHeight="12620" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="11720" yWindow="6180" windowWidth="27660" windowHeight="12620" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,12 +62,16 @@
     <t>MaxBounceCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>스파이럴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +91,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -121,7 +133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -505,12 +520,163 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>600</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>600</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>601</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>601</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>602</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>90</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>603</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>604</v>
+      </c>
+      <c r="C10" s="2">
+        <v>180</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>605</v>
+      </c>
+      <c r="C11" s="2">
+        <v>225</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>606</v>
+      </c>
+      <c r="C12" s="2">
+        <v>270</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>607</v>
+      </c>
+      <c r="C13" s="2">
+        <v>310</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
         <v>200</v>
       </c>
     </row>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A344657B-34E3-4875-B60D-5C3C04E13B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12DD07ED-973D-4360-9218-F8731E5154AD}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +47,6 @@
   </si>
   <si>
     <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -236,7 +244,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9E4641E8-B03E-44B1-9BD3-B355E8B23BC8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -255,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표19" displayName="표19" ref="A2:F42" totalsRowShown="0">
-  <autoFilter ref="A2:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8F925FB-4242-428A-86CF-BE0A042D6F34}" name="표19" displayName="표19" ref="A2:F42" totalsRowShown="0">
+  <autoFilter ref="A2:F42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Index"/>
-    <tableColumn id="2" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" name="ShootAngle"/>
-    <tableColumn id="6" name="ShootDataId"/>
-    <tableColumn id="4" name="MaxBounceCount"/>
-    <tableColumn id="5" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{1635FECD-0754-40EE-9A8F-E75F972665FD}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{CC9AC0EE-B77F-4F68-8B5D-38FF8A663C26}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FA0C1DCD-4442-4994-85F6-CAFDD7EB14C9}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{5CBA8ECF-1A8A-4C4C-BD59-22B252FA5C85}" name="ShootDataId"/>
+    <tableColumn id="4" xr3:uid="{0BFE513D-5675-4DB6-AEBC-17C59735A3A9}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{86204C55-05AD-4794-892E-B3EA29C0A7D5}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -286,7 +294,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -298,7 +306,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -345,6 +353,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -380,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,20 +573,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A68DF2-A04B-44E4-8A95-6E17D0B2867E}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
@@ -561,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -572,22 +615,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -595,7 +638,7 @@
         <v>700</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -615,7 +658,7 @@
         <v>700</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>90</v>
@@ -635,7 +678,7 @@
         <v>700</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>180</v>
@@ -655,10 +698,10 @@
         <v>700</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>270</v>
+        <v>-90</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -675,7 +718,7 @@
         <v>701</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -695,7 +738,7 @@
         <v>702</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>-45</v>
@@ -715,7 +758,7 @@
         <v>702</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -735,7 +778,7 @@
         <v>702</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>45</v>
@@ -755,7 +798,7 @@
         <v>703</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -775,7 +818,7 @@
         <v>703</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -795,7 +838,7 @@
         <v>703</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -815,7 +858,7 @@
         <v>704</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>-45</v>
@@ -835,7 +878,7 @@
         <v>704</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -855,7 +898,7 @@
         <v>704</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>45</v>
@@ -875,7 +918,7 @@
         <v>704</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>-45</v>
@@ -895,7 +938,7 @@
         <v>704</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -915,7 +958,7 @@
         <v>704</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>45</v>
@@ -935,7 +978,7 @@
         <v>705</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -955,7 +998,7 @@
         <v>705</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -975,7 +1018,7 @@
         <v>705</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>120</v>
@@ -995,7 +1038,7 @@
         <v>705</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>180</v>
@@ -1015,10 +1058,10 @@
         <v>705</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>240</v>
+        <v>-120</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -1035,10 +1078,10 @@
         <v>705</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>300</v>
+        <v>-60</v>
       </c>
       <c r="D25">
         <v>400</v>
@@ -1055,7 +1098,7 @@
         <v>706</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1075,7 +1118,7 @@
         <v>706</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1095,7 +1138,7 @@
         <v>707</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>135</v>
@@ -1115,7 +1158,7 @@
         <v>707</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>180</v>
@@ -1135,10 +1178,10 @@
         <v>707</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>225</v>
+        <v>-135</v>
       </c>
       <c r="D30">
         <v>402</v>
@@ -1155,7 +1198,7 @@
         <v>707</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>45</v>
@@ -1175,7 +1218,7 @@
         <v>707</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1195,10 +1238,10 @@
         <v>707</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>315</v>
+        <v>-45</v>
       </c>
       <c r="D33">
         <v>402</v>
@@ -1215,7 +1258,7 @@
         <v>708</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1235,10 +1278,10 @@
         <v>708</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>315</v>
+        <v>-45</v>
       </c>
       <c r="D35">
         <v>402</v>
@@ -1255,10 +1298,10 @@
         <v>708</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>270</v>
+        <v>-90</v>
       </c>
       <c r="D36">
         <v>402</v>
@@ -1275,10 +1318,10 @@
         <v>708</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>225</v>
+        <v>-135</v>
       </c>
       <c r="D37">
         <v>402</v>
@@ -1295,7 +1338,7 @@
         <v>708</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>180</v>
@@ -1315,7 +1358,7 @@
         <v>708</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>135</v>
@@ -1335,7 +1378,7 @@
         <v>708</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>90</v>
@@ -1355,7 +1398,7 @@
         <v>708</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>45</v>
@@ -1375,7 +1418,7 @@
         <v>708</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>0</v>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A344657B-34E3-4875-B60D-5C3C04E13B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16BA2C6-7774-4E5C-BF04-806471851E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12DD07ED-973D-4360-9218-F8731E5154AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C22C1EDD-8772-46A5-BE0A-5F7603239873}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ShootDataId</t>
+    <t>ProjectileDataId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,7 +244,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9E4641E8-B03E-44B1-9BD3-B355E8B23BC8}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0B270D2C-03BA-4A0F-9370-4F7D8889C7E5}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -263,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8F925FB-4242-428A-86CF-BE0A042D6F34}" name="표19" displayName="표19" ref="A2:F42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA32D33-0D02-4E8F-9EDC-21856C2B5B2F}" name="표19" displayName="표19" ref="A2:F42" totalsRowShown="0">
   <autoFilter ref="A2:F42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1635FECD-0754-40EE-9A8F-E75F972665FD}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{CC9AC0EE-B77F-4F68-8B5D-38FF8A663C26}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{FA0C1DCD-4442-4994-85F6-CAFDD7EB14C9}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{5CBA8ECF-1A8A-4C4C-BD59-22B252FA5C85}" name="ShootDataId"/>
-    <tableColumn id="4" xr3:uid="{0BFE513D-5675-4DB6-AEBC-17C59735A3A9}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{86204C55-05AD-4794-892E-B3EA29C0A7D5}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{EA4A7627-B546-4691-BAAA-B297F0DEC945}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{AA8D86B5-AF18-4A24-AB2B-0D9ABEC9541A}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0990DB10-2AF1-4FFC-93B5-4C5334FA3B29}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{DE86E07A-8CDD-4890-8143-D9ADF5CDA2FD}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{6BF923FF-4559-4662-BC56-891B16DC6BEB}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{42A80D1B-D57B-488E-850A-2D82A712B657}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,14 +573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A68DF2-A04B-44E4-8A95-6E17D0B2867E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE5BF2F-F97C-44E2-80B5-BA20B1AED3F9}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -588,7 +588,7 @@
     <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16BA2C6-7774-4E5C-BF04-806471851E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8287B089-2994-4ECF-87CC-F7B89EFF7892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C22C1EDD-8772-46A5-BE0A-5F7603239873}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78AED5D9-ECEA-4EFE-9AA3-81ADEBE61C17}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0B270D2C-03BA-4A0F-9370-4F7D8889C7E5}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3F1A40F1-B9C4-481D-B27F-B8F23FD14DC9}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -263,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA32D33-0D02-4E8F-9EDC-21856C2B5B2F}" name="표19" displayName="표19" ref="A2:F42" totalsRowShown="0">
-  <autoFilter ref="A2:F42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F9C84FD-B10E-421D-A279-C0CC78A01753}" name="표19" displayName="표19" ref="B2:G42" totalsRowShown="0">
+  <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EA4A7627-B546-4691-BAAA-B297F0DEC945}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{AA8D86B5-AF18-4A24-AB2B-0D9ABEC9541A}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0990DB10-2AF1-4FFC-93B5-4C5334FA3B29}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{DE86E07A-8CDD-4890-8143-D9ADF5CDA2FD}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{6BF923FF-4559-4662-BC56-891B16DC6BEB}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{42A80D1B-D57B-488E-850A-2D82A712B657}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{B57B199E-5926-4085-A918-F49345E553CD}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{B1D3DD31-9D0F-4F93-A5AB-5B8A9DC647C9}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C6721E13-60CD-439F-85E7-9BCA66BD730E}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{3FAF00C5-6865-4B5D-BA6A-22DF324E9160}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{F8AFD631-70A7-483E-A68E-992ECB0E0089}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{AA2AD1C5-FAA4-4A69-9DBD-5EA0CD0D135A}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,863 +573,863 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE5BF2F-F97C-44E2-80B5-BA20B1AED3F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC34CCD-7018-4981-838D-59C41BBE43E3}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="2:7">
+      <c r="B3">
         <v>700</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
         <v>700</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>90</v>
       </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
         <v>700</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>180</v>
       </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
         <v>700</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-90</v>
       </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
         <v>701</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>401</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8" spans="2:7">
+      <c r="B8">
         <v>702</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-45</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>403</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
         <v>702</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>403</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
         <v>702</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>45</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>403</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
         <v>703</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
         <v>703</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
         <v>703</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
         <v>704</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>-45</v>
       </c>
-      <c r="D14">
-        <v>400</v>
-      </c>
       <c r="E14">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
         <v>704</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
         <v>704</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
         <v>45</v>
       </c>
-      <c r="D16">
-        <v>400</v>
-      </c>
       <c r="E16">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
         <v>704</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
         <v>-45</v>
       </c>
-      <c r="D17">
-        <v>400</v>
-      </c>
       <c r="E17">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
         <v>704</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
         <v>704</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
         <v>45</v>
       </c>
-      <c r="D19">
-        <v>400</v>
-      </c>
       <c r="E19">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
         <v>705</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
         <v>705</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
         <v>60</v>
       </c>
-      <c r="D21">
-        <v>400</v>
-      </c>
       <c r="E21">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
         <v>705</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
         <v>120</v>
       </c>
-      <c r="D22">
-        <v>400</v>
-      </c>
       <c r="E22">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
         <v>705</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
         <v>180</v>
       </c>
-      <c r="D23">
-        <v>400</v>
-      </c>
       <c r="E23">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
         <v>705</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
         <v>-120</v>
       </c>
-      <c r="D24">
-        <v>400</v>
-      </c>
       <c r="E24">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
         <v>705</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
         <v>-60</v>
       </c>
-      <c r="D25">
-        <v>400</v>
-      </c>
       <c r="E25">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
         <v>706</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>401</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+    <row r="27" spans="2:7">
+      <c r="B27">
         <v>706</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>401</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
+    <row r="28" spans="2:7">
+      <c r="B28">
         <v>707</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
         <v>135</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>402</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
+    <row r="29" spans="2:7">
+      <c r="B29">
         <v>707</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
         <v>180</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>402</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
+    <row r="30" spans="2:7">
+      <c r="B30">
         <v>707</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
         <v>-135</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>402</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+    <row r="31" spans="2:7">
+      <c r="B31">
         <v>707</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
         <v>45</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>402</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+    <row r="32" spans="2:7">
+      <c r="B32">
         <v>707</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>402</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+    <row r="33" spans="2:7">
+      <c r="B33">
         <v>707</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
         <v>-45</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>402</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="34" spans="2:7">
+      <c r="B34">
         <v>708</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>402</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="35" spans="2:7">
+      <c r="B35">
         <v>708</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-45</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>402</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="36" spans="2:7">
+      <c r="B36">
         <v>708</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-90</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>402</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="37" spans="2:7">
+      <c r="B37">
         <v>708</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-135</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>402</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="38" spans="2:7">
+      <c r="B38">
         <v>708</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>180</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>402</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="39" spans="2:7">
+      <c r="B39">
         <v>708</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>135</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>402</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="40" spans="2:7">
+      <c r="B40">
         <v>708</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>90</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>402</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="41" spans="2:7">
+      <c r="B41">
         <v>708</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>45</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>402</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
+    <row r="42" spans="2:7">
+      <c r="B42">
         <v>708</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>402</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>150</v>
       </c>
     </row>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8287B089-2994-4ECF-87CC-F7B89EFF7892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD9DFE9-EBD8-4DCB-93EA-461BDBC18432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78AED5D9-ECEA-4EFE-9AA3-81ADEBE61C17}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0E75C82-54FE-451B-8462-9F46940200C2}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3F1A40F1-B9C4-481D-B27F-B8F23FD14DC9}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{029506D6-9C15-4B6C-B10D-10174BDE9E44}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -263,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F9C84FD-B10E-421D-A279-C0CC78A01753}" name="표19" displayName="표19" ref="B2:G42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2323492A-6781-4D3A-AF68-8AEFF649FFA5}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
   <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B57B199E-5926-4085-A918-F49345E553CD}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{B1D3DD31-9D0F-4F93-A5AB-5B8A9DC647C9}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C6721E13-60CD-439F-85E7-9BCA66BD730E}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{3FAF00C5-6865-4B5D-BA6A-22DF324E9160}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{F8AFD631-70A7-483E-A68E-992ECB0E0089}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{AA2AD1C5-FAA4-4A69-9DBD-5EA0CD0D135A}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{B2726A1A-3A4B-4B57-BCE7-254CCB99F0C9}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{7485F2F2-A5A9-43F8-9FE2-2F89D6FFA1BC}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E0E62178-CCC1-4C52-AC02-93C83792272F}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{5FAA0517-A12A-43A6-B90F-2BB02A433A45}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{833171C4-D87D-4661-A072-1E957D2E4A6B}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{1134E2E8-1269-46FE-8600-96D10A62506D}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,14 +573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC34CCD-7018-4981-838D-59C41BBE43E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C886F1D-33A0-4719-AC99-DC266751E340}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD9DFE9-EBD8-4DCB-93EA-461BDBC18432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17B09AC-DE8C-478C-8BE9-DD8319D17F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0E75C82-54FE-451B-8462-9F46940200C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EDD7AF0-9008-424A-A3D6-E1C46F889110}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{029506D6-9C15-4B6C-B10D-10174BDE9E44}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D631342F-1B30-4667-BE90-2CA1C88FA031}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -263,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2323492A-6781-4D3A-AF68-8AEFF649FFA5}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0248FF56-C319-4C4D-B134-1C22ED3D88B8}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
   <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B2726A1A-3A4B-4B57-BCE7-254CCB99F0C9}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{7485F2F2-A5A9-43F8-9FE2-2F89D6FFA1BC}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{E0E62178-CCC1-4C52-AC02-93C83792272F}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{5FAA0517-A12A-43A6-B90F-2BB02A433A45}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{833171C4-D87D-4661-A072-1E957D2E4A6B}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{1134E2E8-1269-46FE-8600-96D10A62506D}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{85F8F0DE-17DA-44DA-B8F8-DFE65F064F1B}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{D2839EBE-5943-49A1-8912-9A4529AD8758}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D6EE56DA-648B-44DD-A1DE-2FDFCCCCA89D}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{54CEC61D-F47D-4A7A-AFEB-AB7BA12FDEA6}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{F6F2E009-87F0-4897-A22B-5059F0D34513}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{DF7B03F7-2F10-489C-ADE1-65EF13573C01}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C886F1D-33A0-4719-AC99-DC266751E340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F60C27-5C13-434D-B1E1-037A47BFA32B}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17B09AC-DE8C-478C-8BE9-DD8319D17F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74AD8671-CB44-4237-AED0-B7CEEBF17CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EDD7AF0-9008-424A-A3D6-E1C46F889110}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{006696E7-6EDA-4697-ABB9-44301DBAF1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D631342F-1B30-4667-BE90-2CA1C88FA031}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AAD93C0B-FBA7-43AE-9C4F-335336926D6F}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -263,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0248FF56-C319-4C4D-B134-1C22ED3D88B8}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDE9F127-4A0B-4D4A-8A90-94E2E7C23F5D}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
   <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{85F8F0DE-17DA-44DA-B8F8-DFE65F064F1B}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{D2839EBE-5943-49A1-8912-9A4529AD8758}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D6EE56DA-648B-44DD-A1DE-2FDFCCCCA89D}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{54CEC61D-F47D-4A7A-AFEB-AB7BA12FDEA6}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{F6F2E009-87F0-4897-A22B-5059F0D34513}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{DF7B03F7-2F10-489C-ADE1-65EF13573C01}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{E2BB4EBE-FFC6-4FD5-B3A2-C927BA7BB1D8}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{B2D4870E-3D1F-494D-8723-26A1F158E027}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{ED5B320D-ECEA-41D9-8DBF-733B1AEBE465}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{A4BA588C-CE63-49A7-AAD1-0127B3499F20}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{8063B914-EBFC-4185-895E-2B0981D285A3}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{B761721A-03B2-4CA2-8212-5FB8E2C764EA}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F60C27-5C13-434D-B1E1-037A47BFA32B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5529A6D-E1B3-4EA4-B199-00F9FFEC35F3}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74AD8671-CB44-4237-AED0-B7CEEBF17CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83434DFB-1FB2-4D99-8404-D3635FADF1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{006696E7-6EDA-4697-ABB9-44301DBAF1A2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F810874-91C1-4187-8533-255643B45220}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AAD93C0B-FBA7-43AE-9C4F-335336926D6F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C5D18EA4-A8EA-4E47-912F-1547DC626C76}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -263,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDE9F127-4A0B-4D4A-8A90-94E2E7C23F5D}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A869C42-9553-4250-BC01-0E1CA7F6DC04}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
   <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E2BB4EBE-FFC6-4FD5-B3A2-C927BA7BB1D8}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{B2D4870E-3D1F-494D-8723-26A1F158E027}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{ED5B320D-ECEA-41D9-8DBF-733B1AEBE465}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{A4BA588C-CE63-49A7-AAD1-0127B3499F20}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{8063B914-EBFC-4185-895E-2B0981D285A3}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{B761721A-03B2-4CA2-8212-5FB8E2C764EA}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{37BEF476-8911-4991-B8A1-8773FA1D48AF}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{6ACD481A-3F1E-4C9A-806D-2A667E4E4AAA}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C79114BA-4B88-4635-9536-045792FE101D}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{84DFCFE9-328B-469C-8229-A64FBC8285A3}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{BE553E0B-2FB2-4B2C-959D-AC094007E153}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{AE9D6BF7-50E7-4070-A4A1-8BD4D6BAE67B}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,14 +573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5529A6D-E1B3-4EA4-B199-00F9FFEC35F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E53E39B-FEF4-49C3-BE08-72A25E491E8E}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83434DFB-1FB2-4D99-8404-D3635FADF1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA0CCC0-222B-4121-8849-5E874146513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F810874-91C1-4187-8533-255643B45220}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64AB3B3E-B78A-4816-BD68-05A2DEA4CC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4발중 1발</t>
-  </si>
-  <si>
-    <t>1발</t>
+    <t>4발 상하좌우 뿌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4발 대각상하좌우 뿌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정방향 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관총 난사 2도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관총 난사 4도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관총 난사 6도</t>
+  </si>
+  <si>
+    <t>기관총 난사 8도</t>
+  </si>
+  <si>
+    <t>기관총 난사 10도</t>
+  </si>
+  <si>
+    <t>기관총 난사 12도</t>
+  </si>
+  <si>
+    <t>기관총 난사 14도</t>
+  </si>
+  <si>
+    <t>기관총 난사 16도</t>
+  </si>
+  <si>
+    <t>기관총 난사 -2도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관총 난사 -4도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관총 난사 -6도</t>
+  </si>
+  <si>
+    <t>기관총 난사 -8도</t>
+  </si>
+  <si>
+    <t>기관총 난사 -10도</t>
+  </si>
+  <si>
+    <t>기관총 난사 -12도</t>
+  </si>
+  <si>
+    <t>기관총 난사 -14도</t>
+  </si>
+  <si>
+    <t>기관총 난사 -16도</t>
+  </si>
+  <si>
+    <t>3발중 1발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3발중 1발</t>
@@ -244,7 +306,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C5D18EA4-A8EA-4E47-912F-1547DC626C76}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DDCBF2F2-2349-4CF7-A3BF-4D25930AFE23}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -263,15 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A869C42-9553-4250-BC01-0E1CA7F6DC04}" name="ShootTable" displayName="ShootTable" ref="B2:G42" totalsRowShown="0">
-  <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A590FC-5A61-4AC7-A077-5A66D2A95723}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
+  <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{37BEF476-8911-4991-B8A1-8773FA1D48AF}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{6ACD481A-3F1E-4C9A-806D-2A667E4E4AAA}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C79114BA-4B88-4635-9536-045792FE101D}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{84DFCFE9-328B-469C-8229-A64FBC8285A3}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{BE553E0B-2FB2-4B2C-959D-AC094007E153}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{AE9D6BF7-50E7-4070-A4A1-8BD4D6BAE67B}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{E38F0C44-7F62-43DF-AA2A-7A1BBCD54D67}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{4F760DC9-B6A4-41E2-8D39-46A21CCA8207}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2F393783-F652-4B12-B1E1-EB64880FBA63}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{0965D376-DB68-41AA-929E-A17CB9C3AB16}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{B31C1390-40AA-41E3-8AD6-22E4B5A14CCA}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{46CD90E4-05B7-40DD-830C-595F373DD343}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,20 +635,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E53E39B-FEF4-49C3-BE08-72A25E491E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF12D580-BA45-435E-9DBC-0B3B41CE5D32}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
@@ -644,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -664,13 +726,13 @@
         <v>90</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -684,13 +746,13 @@
         <v>180</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -704,13 +766,13 @@
         <v>-90</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -721,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>401</v>
@@ -730,72 +792,72 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>-45</v>
       </c>
       <c r="E8">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E9">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>-135</v>
       </c>
       <c r="E10">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -810,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -818,10 +880,10 @@
         <v>703</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -830,18 +892,18 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -850,18 +912,18 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>-45</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>400</v>
@@ -870,18 +932,18 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>400</v>
@@ -890,18 +952,18 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -910,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>-45</v>
-      </c>
       <c r="E17">
         <v>400</v>
       </c>
@@ -930,18 +992,18 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>400</v>
@@ -950,18 +1012,18 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>400</v>
@@ -970,18 +1032,18 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E20">
         <v>400</v>
@@ -990,18 +1052,18 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>-4</v>
       </c>
       <c r="E21">
         <v>400</v>
@@ -1010,18 +1072,18 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>120</v>
+        <v>-6</v>
       </c>
       <c r="E22">
         <v>400</v>
@@ -1030,18 +1092,18 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>180</v>
+        <v>-8</v>
       </c>
       <c r="E23">
         <v>400</v>
@@ -1050,18 +1112,18 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>-120</v>
+        <v>-10</v>
       </c>
       <c r="E24">
         <v>400</v>
@@ -1070,18 +1132,18 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>-60</v>
+        <v>-12</v>
       </c>
       <c r="E25">
         <v>400</v>
@@ -1090,347 +1152,747 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E26">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="E27">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>135</v>
+        <v>-45</v>
       </c>
       <c r="E28">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>-135</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="E34">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>-90</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>-135</v>
+        <v>-45</v>
       </c>
       <c r="E37">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E42">
+        <v>400</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>721</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>180</v>
+      </c>
+      <c r="E43">
+        <v>400</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
+        <v>721</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>-120</v>
+      </c>
+      <c r="E44">
+        <v>400</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>721</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>-60</v>
+      </c>
+      <c r="E45">
+        <v>400</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>722</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>401</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47">
+        <v>722</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>401</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
+        <v>723</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>135</v>
+      </c>
+      <c r="E48">
         <v>402</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>150</v>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49">
+        <v>723</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>180</v>
+      </c>
+      <c r="E49">
+        <v>402</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50">
+        <v>723</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>-135</v>
+      </c>
+      <c r="E50">
+        <v>402</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51">
+        <v>723</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>45</v>
+      </c>
+      <c r="E51">
+        <v>402</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52">
+        <v>723</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>402</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53">
+        <v>723</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>-45</v>
+      </c>
+      <c r="E53">
+        <v>402</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54">
+        <v>724</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>402</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55">
+        <v>724</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>-45</v>
+      </c>
+      <c r="E55">
+        <v>402</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56">
+        <v>724</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>-90</v>
+      </c>
+      <c r="E56">
+        <v>402</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57">
+        <v>724</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>-135</v>
+      </c>
+      <c r="E57">
+        <v>402</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58">
+        <v>724</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>180</v>
+      </c>
+      <c r="E58">
+        <v>402</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59">
+        <v>724</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>135</v>
+      </c>
+      <c r="E59">
+        <v>402</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60">
+        <v>724</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>90</v>
+      </c>
+      <c r="E60">
+        <v>402</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61">
+        <v>724</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>45</v>
+      </c>
+      <c r="E61">
+        <v>402</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62">
+        <v>724</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>402</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA0CCC0-222B-4121-8849-5E874146513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{095BB90E-4515-4982-82EE-BE5F6677B3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64AB3B3E-B78A-4816-BD68-05A2DEA4CC3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80B4C3F3-98C9-4B5A-84DA-F8B6868B28EE}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DDCBF2F2-2349-4CF7-A3BF-4D25930AFE23}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DEE1AA14-AFE4-4DDA-9754-0927CC1D4D5E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -325,15 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74A590FC-5A61-4AC7-A077-5A66D2A95723}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B143EA1-7F74-4F95-A43A-34D07C68275E}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
   <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E38F0C44-7F62-43DF-AA2A-7A1BBCD54D67}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{4F760DC9-B6A4-41E2-8D39-46A21CCA8207}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2F393783-F652-4B12-B1E1-EB64880FBA63}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{0965D376-DB68-41AA-929E-A17CB9C3AB16}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{B31C1390-40AA-41E3-8AD6-22E4B5A14CCA}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{46CD90E4-05B7-40DD-830C-595F373DD343}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{8F7184F4-0E68-41F8-BE7C-BC54D6E7EE67}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{7FE148CE-D755-4CD6-8556-7E6CC7F7AFAA}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E6559047-E79A-4EB6-B18A-EAE661040A93}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{47B86606-8719-47F8-B5D4-E2A807E9B6CC}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{BBF89560-1DCB-441A-BAB4-33A9AC57A215}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{14AA4792-FB47-465A-A1BA-F392E7352B27}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF12D580-BA45-435E-9DBC-0B3B41CE5D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856A17B3-55A7-4986-920B-69AC643368EA}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{095BB90E-4515-4982-82EE-BE5F6677B3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74460862-1D0F-B94F-AA78-B6E0593B9507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80B4C3F3-98C9-4B5A-84DA-F8B6868B28EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{80B4C3F3-98C9-4B5A-84DA-F8B6868B28EE}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -641,17 +641,17 @@
   </sheetPr>
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -709,7 +709,7 @@
         <v>401</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -729,7 +729,7 @@
         <v>401</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -749,7 +749,7 @@
         <v>401</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -769,7 +769,7 @@
         <v>401</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -789,7 +789,7 @@
         <v>401</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -809,7 +809,7 @@
         <v>401</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -829,7 +829,7 @@
         <v>401</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -849,7 +849,7 @@
         <v>401</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -869,7 +869,7 @@
         <v>400</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -889,7 +889,7 @@
         <v>400</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -909,7 +909,7 @@
         <v>400</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -929,7 +929,7 @@
         <v>400</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -949,7 +949,7 @@
         <v>400</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -969,7 +969,7 @@
         <v>400</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -989,7 +989,7 @@
         <v>400</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1009,7 +1009,7 @@
         <v>400</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1029,7 +1029,7 @@
         <v>400</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -1049,7 +1049,7 @@
         <v>400</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>400</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -1089,7 +1089,7 @@
         <v>400</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1109,7 +1109,7 @@
         <v>400</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1129,7 +1129,7 @@
         <v>400</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1149,7 +1149,7 @@
         <v>400</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -1169,7 +1169,7 @@
         <v>400</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -1189,7 +1189,7 @@
         <v>400</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -1209,7 +1209,7 @@
         <v>403</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -1229,7 +1229,7 @@
         <v>403</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>403</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -1269,7 +1269,7 @@
         <v>400</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -1289,7 +1289,7 @@
         <v>400</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -1309,7 +1309,7 @@
         <v>400</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -1329,7 +1329,7 @@
         <v>400</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -1349,7 +1349,7 @@
         <v>400</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -1369,7 +1369,7 @@
         <v>400</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -1389,7 +1389,7 @@
         <v>400</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -1409,7 +1409,7 @@
         <v>400</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -1429,7 +1429,7 @@
         <v>400</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>6</v>
@@ -1449,7 +1449,7 @@
         <v>400</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -1469,7 +1469,7 @@
         <v>400</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -1489,7 +1489,7 @@
         <v>400</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -1509,7 +1509,7 @@
         <v>400</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -1529,7 +1529,7 @@
         <v>400</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -1549,7 +1549,7 @@
         <v>400</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -1569,7 +1569,7 @@
         <v>401</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -1589,7 +1589,7 @@
         <v>401</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -1609,7 +1609,7 @@
         <v>402</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -1629,7 +1629,7 @@
         <v>402</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -1649,7 +1649,7 @@
         <v>402</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -1669,7 +1669,7 @@
         <v>402</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51">
         <v>7</v>
@@ -1689,7 +1689,7 @@
         <v>402</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -1709,7 +1709,7 @@
         <v>402</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>7</v>
@@ -1729,7 +1729,7 @@
         <v>402</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>7</v>
@@ -1749,7 +1749,7 @@
         <v>402</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -1769,7 +1769,7 @@
         <v>402</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -1789,7 +1789,7 @@
         <v>402</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -1809,7 +1809,7 @@
         <v>402</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <v>7</v>
@@ -1829,7 +1829,7 @@
         <v>402</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>7</v>
@@ -1849,7 +1849,7 @@
         <v>402</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <v>7</v>
@@ -1869,7 +1869,7 @@
         <v>402</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
         <v>7</v>
@@ -1889,7 +1889,7 @@
         <v>402</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>7</v>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74460862-1D0F-B94F-AA78-B6E0593B9507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCEEC24-9C5A-4C7E-AF1A-A71647F62987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{80B4C3F3-98C9-4B5A-84DA-F8B6868B28EE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66AF7FF1-F28C-4C9E-AE8C-994FD30D536E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DEE1AA14-AFE4-4DDA-9754-0927CC1D4D5E}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{18835DA6-B8FB-44DE-938E-2CF72BEC9966}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -325,15 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B143EA1-7F74-4F95-A43A-34D07C68275E}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66610AF1-2165-4BBF-ABD3-5AECE5F94A52}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
   <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8F7184F4-0E68-41F8-BE7C-BC54D6E7EE67}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{7FE148CE-D755-4CD6-8556-7E6CC7F7AFAA}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{E6559047-E79A-4EB6-B18A-EAE661040A93}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{47B86606-8719-47F8-B5D4-E2A807E9B6CC}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{BBF89560-1DCB-441A-BAB4-33A9AC57A215}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{14AA4792-FB47-465A-A1BA-F392E7352B27}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{A021CA12-7C96-44F5-94E3-572E12F23B14}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{D15FBEE0-4B28-4764-869D-E6ED9778FE03}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{09B126D9-A6F2-42B0-8FCB-B3DF9B131C3F}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{A8D141DC-38A3-48C7-89B6-B4BAFE9D8EB9}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{7F667EDD-9BEC-404F-B622-59CD264AAB09}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{7DB8177D-32D4-4D73-B6B0-7293CA6450CF}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,23 +635,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856A17B3-55A7-4986-920B-69AC643368EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729C98A5-1BA7-4A37-A27B-B25CA6A4AC41}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -709,7 +709,7 @@
         <v>401</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -729,7 +729,7 @@
         <v>401</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -749,7 +749,7 @@
         <v>401</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -769,7 +769,7 @@
         <v>401</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -789,7 +789,7 @@
         <v>401</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -809,7 +809,7 @@
         <v>401</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -829,7 +829,7 @@
         <v>401</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -849,7 +849,7 @@
         <v>401</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -869,7 +869,7 @@
         <v>400</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -889,7 +889,7 @@
         <v>400</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -909,7 +909,7 @@
         <v>400</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -929,7 +929,7 @@
         <v>400</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -949,7 +949,7 @@
         <v>400</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -969,7 +969,7 @@
         <v>400</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -989,7 +989,7 @@
         <v>400</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1009,7 +1009,7 @@
         <v>400</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1029,7 +1029,7 @@
         <v>400</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -1049,7 +1049,7 @@
         <v>400</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>400</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -1089,7 +1089,7 @@
         <v>400</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1109,7 +1109,7 @@
         <v>400</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1129,7 +1129,7 @@
         <v>400</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1149,7 +1149,7 @@
         <v>400</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -1169,7 +1169,7 @@
         <v>400</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -1189,7 +1189,7 @@
         <v>400</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -1209,7 +1209,7 @@
         <v>403</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -1229,7 +1229,7 @@
         <v>403</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>403</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -1269,7 +1269,7 @@
         <v>400</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -1289,7 +1289,7 @@
         <v>400</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -1309,7 +1309,7 @@
         <v>400</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -1329,7 +1329,7 @@
         <v>400</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -1349,7 +1349,7 @@
         <v>400</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -1369,7 +1369,7 @@
         <v>400</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -1389,7 +1389,7 @@
         <v>400</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -1409,7 +1409,7 @@
         <v>400</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -1429,7 +1429,7 @@
         <v>400</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>6</v>
@@ -1449,7 +1449,7 @@
         <v>400</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -1469,7 +1469,7 @@
         <v>400</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -1489,7 +1489,7 @@
         <v>400</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -1509,7 +1509,7 @@
         <v>400</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -1529,7 +1529,7 @@
         <v>400</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -1549,7 +1549,7 @@
         <v>400</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -1569,7 +1569,7 @@
         <v>401</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -1589,7 +1589,7 @@
         <v>401</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -1609,7 +1609,7 @@
         <v>402</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -1629,7 +1629,7 @@
         <v>402</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -1649,7 +1649,7 @@
         <v>402</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -1669,7 +1669,7 @@
         <v>402</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>7</v>
@@ -1689,7 +1689,7 @@
         <v>402</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -1709,7 +1709,7 @@
         <v>402</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>7</v>
@@ -1729,7 +1729,7 @@
         <v>402</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>7</v>
@@ -1749,7 +1749,7 @@
         <v>402</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -1769,7 +1769,7 @@
         <v>402</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -1789,7 +1789,7 @@
         <v>402</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>7</v>
@@ -1809,7 +1809,7 @@
         <v>402</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>7</v>
@@ -1829,7 +1829,7 @@
         <v>402</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>7</v>
@@ -1849,7 +1849,7 @@
         <v>402</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>7</v>
@@ -1869,7 +1869,7 @@
         <v>402</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>7</v>
@@ -1889,7 +1889,7 @@
         <v>402</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>7</v>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCEEC24-9C5A-4C7E-AF1A-A71647F62987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0B17E9D-B97E-41F5-99CF-271B3FDC5E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66AF7FF1-F28C-4C9E-AE8C-994FD30D536E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66771039-43E2-47B5-843A-FE3788EDB878}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{18835DA6-B8FB-44DE-938E-2CF72BEC9966}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{626EC1E4-8965-4063-8189-C2875E14A35B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -325,15 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66610AF1-2165-4BBF-ABD3-5AECE5F94A52}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E2F944C-18F9-4A52-BA72-2AAA0BB25505}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
   <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A021CA12-7C96-44F5-94E3-572E12F23B14}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{D15FBEE0-4B28-4764-869D-E6ED9778FE03}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{09B126D9-A6F2-42B0-8FCB-B3DF9B131C3F}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{A8D141DC-38A3-48C7-89B6-B4BAFE9D8EB9}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{7F667EDD-9BEC-404F-B622-59CD264AAB09}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{7DB8177D-32D4-4D73-B6B0-7293CA6450CF}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{454FCF81-DED7-402E-8D79-DB4750245124}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{CE4D64CC-A18C-45CB-8B69-6886FD1983F0}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FA9438CF-B81C-4B2B-BD23-C7F8C8598EAE}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{0D56E6DA-79A3-411A-997B-6E7F0D2CC544}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{3DC21CAC-668B-4099-9173-26F23E8A4CD5}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{F6BA6039-81BC-4FB8-92B3-1C0B41B60223}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729C98A5-1BA7-4A37-A27B-B25CA6A4AC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DB903F-AEF3-4920-BD21-E4F441E1A432}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0B17E9D-B97E-41F5-99CF-271B3FDC5E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69025DCE-54FA-47B1-BE9D-21F44213CAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66771039-43E2-47B5-843A-FE3788EDB878}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52562A7-5E53-4FE4-9E2E-B6E4D0436CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{626EC1E4-8965-4063-8189-C2875E14A35B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EDCA4415-0489-4465-B57B-425A7ACCAE83}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -325,15 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E2F944C-18F9-4A52-BA72-2AAA0BB25505}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CE6A612-896B-4736-9F57-C7125719DE4D}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
   <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{454FCF81-DED7-402E-8D79-DB4750245124}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{CE4D64CC-A18C-45CB-8B69-6886FD1983F0}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{FA9438CF-B81C-4B2B-BD23-C7F8C8598EAE}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{0D56E6DA-79A3-411A-997B-6E7F0D2CC544}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{3DC21CAC-668B-4099-9173-26F23E8A4CD5}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{F6BA6039-81BC-4FB8-92B3-1C0B41B60223}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{320960CE-C04A-431B-844A-146E779D48DC}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{DC6EE332-8AB9-4D4D-9D60-52547943959F}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{06FBC2D9-AF45-495A-82AB-5FE4623BB39A}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{96333790-29E1-49B5-AA22-107435D4D93F}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{E6F71174-BF7B-4678-9FAF-BB30B0660FB2}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{8DF75045-22CF-402F-BC31-CCC218681B1F}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,14 +635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DB903F-AEF3-4920-BD21-E4F441E1A432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF533F76-C27C-41B7-BEBB-60B4941893C6}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:7">

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69025DCE-54FA-47B1-BE9D-21F44213CAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F9552A-D282-4A30-A07D-57F5981F9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52562A7-5E53-4FE4-9E2E-B6E4D0436CE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66657DEC-F098-4783-AFC2-E4A56FA8DDE8}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EDCA4415-0489-4465-B57B-425A7ACCAE83}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F4FC60EA-56C6-4B00-B77D-6B06AB45337B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -325,15 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CE6A612-896B-4736-9F57-C7125719DE4D}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B12C372-952E-4B0C-A43F-202D3C2A52A5}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
   <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{320960CE-C04A-431B-844A-146E779D48DC}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{DC6EE332-8AB9-4D4D-9D60-52547943959F}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{06FBC2D9-AF45-495A-82AB-5FE4623BB39A}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{96333790-29E1-49B5-AA22-107435D4D93F}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{E6F71174-BF7B-4678-9FAF-BB30B0660FB2}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{8DF75045-22CF-402F-BC31-CCC218681B1F}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{79D48623-E051-4002-8B14-A974BC9526C5}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{17F9DED3-0016-487D-8D7C-443B87957275}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0A33D145-AFFB-44BE-AE88-6CC53BD67D2F}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{5AB08975-C7D3-49A4-BD68-C724DDF18147}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{8809E33C-32D9-45D0-A574-C7137709719C}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{05DEB8F2-6B78-4A85-AAB0-0C094413D7EA}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF533F76-C27C-41B7-BEBB-60B4941893C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF09076-38BB-4BCD-8AFD-7BA72E24B9A9}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:7">

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F9552A-D282-4A30-A07D-57F5981F9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4155BA-7435-423B-9392-250296D1F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66657DEC-F098-4783-AFC2-E4A56FA8DDE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38945C6B-7078-466B-9F22-7BA603FB83B0}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F4FC60EA-56C6-4B00-B77D-6B06AB45337B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{636B907F-B2E9-4047-9026-3AD65E902EB8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -325,15 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B12C372-952E-4B0C-A43F-202D3C2A52A5}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3ADED146-33EB-4194-A065-FB3D1E4481FE}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
   <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{79D48623-E051-4002-8B14-A974BC9526C5}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{17F9DED3-0016-487D-8D7C-443B87957275}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0A33D145-AFFB-44BE-AE88-6CC53BD67D2F}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{5AB08975-C7D3-49A4-BD68-C724DDF18147}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{8809E33C-32D9-45D0-A574-C7137709719C}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{05DEB8F2-6B78-4A85-AAB0-0C094413D7EA}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{9213FB4D-AEFD-40D3-B9D0-C6E928206C09}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{21C2EEC7-4E35-4C56-96CC-C0C5B0D420BC}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{04EAA05D-E6D2-4E69-8BF2-E58D7365A420}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{6E8A3C43-B197-459C-9E14-763B220A4C71}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{BA5AB62C-F1BC-4F81-B959-9AAA129865BE}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{B40FACC5-4E78-42FC-BD2E-9BCB824FC953}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF09076-38BB-4BCD-8AFD-7BA72E24B9A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF640152-EC3E-4C56-A12A-5B04631AA84C}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4155BA-7435-423B-9392-250296D1F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C62454-65C4-4FC2-BEC8-2CD713B6B41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38945C6B-7078-466B-9F22-7BA603FB83B0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85000DB3-483B-430B-ACBD-6A35315508AA}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,20 +137,32 @@
     <t>기관총 난사 -16도</t>
   </si>
   <si>
-    <t>3발중 1발</t>
+    <t>정방향 발사 튕김</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3발중 1발</t>
-  </si>
-  <si>
-    <t>6발중 1발</t>
-  </si>
-  <si>
-    <t>2발중 1발</t>
-  </si>
-  <si>
-    <t>8발중 1발</t>
+    <t>샷건 6불릿 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건 6불릿 발사</t>
+  </si>
+  <si>
+    <t>샷건 8불릿 발사 랜덤1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건 8불릿 발사 랜덤1</t>
+  </si>
+  <si>
+    <t>샷건 8불릿 발사 랜덤2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건 8불릿 발사 랜덤2</t>
+  </si>
+  <si>
+    <t>샷건 8불릿 발사 랜덤3</t>
   </si>
 </sst>
 </file>
@@ -306,7 +318,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{636B907F-B2E9-4047-9026-3AD65E902EB8}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A572BF72-9417-4410-8F3E-1BC776360B8B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -325,15 +337,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3ADED146-33EB-4194-A065-FB3D1E4481FE}" name="ShootTable" displayName="ShootTable" ref="B2:G62" totalsRowShown="0">
-  <autoFilter ref="B2:G62" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B8FFAC2-4B1B-4F53-9CC9-9D6B46360EFF}" name="ShootTable" displayName="ShootTable" ref="B2:G58" totalsRowShown="0">
+  <autoFilter ref="B2:G58" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9213FB4D-AEFD-40D3-B9D0-C6E928206C09}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{21C2EEC7-4E35-4C56-96CC-C0C5B0D420BC}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{04EAA05D-E6D2-4E69-8BF2-E58D7365A420}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{6E8A3C43-B197-459C-9E14-763B220A4C71}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{BA5AB62C-F1BC-4F81-B959-9AAA129865BE}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{B40FACC5-4E78-42FC-BD2E-9BCB824FC953}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{B6AFA695-F075-4D51-9C56-B2DBCE644C0D}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{46F4DE56-0DEC-4080-A6BA-B03E405CEF51}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FC32B5A1-24F5-4676-91F7-57B484803B26}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{70E924AD-DCEB-42F1-8132-6D2063181016}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{6700E60F-DDF5-46AA-A644-B7FC663C8F40}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{390D32E8-5235-4AA2-B5B6-E1257C7B28C3}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,14 +647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF640152-EC3E-4C56-A12A-5B04631AA84C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35942F2-44B0-434D-A328-EB24ED6D612A}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:G62"/>
+  <dimension ref="B1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1203,10 +1215,10 @@
         <v>28</v>
       </c>
       <c r="D28">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1217,16 +1229,16 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1237,33 +1249,33 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>-4</v>
       </c>
       <c r="E30">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>400</v>
@@ -1272,18 +1284,18 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E32">
         <v>400</v>
@@ -1292,18 +1304,18 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>400</v>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -1323,7 +1335,7 @@
         <v>30</v>
       </c>
       <c r="D34">
-        <v>-45</v>
+        <v>-20</v>
       </c>
       <c r="E34">
         <v>400</v>
@@ -1332,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="E35">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1357,16 +1369,16 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1377,16 +1389,16 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>-45</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1397,16 +1409,16 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E38">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1417,16 +1429,16 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1440,13 +1452,13 @@
         <v>721</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1460,13 +1472,13 @@
         <v>721</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>-5</v>
       </c>
       <c r="E41">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1480,13 +1492,13 @@
         <v>721</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>120</v>
+        <v>-1</v>
       </c>
       <c r="E42">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1497,16 +1509,16 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1517,16 +1529,16 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>-120</v>
+        <v>-9</v>
       </c>
       <c r="E44">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1537,16 +1549,16 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>-60</v>
+        <v>-13</v>
       </c>
       <c r="E45">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1560,13 +1572,13 @@
         <v>722</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E46">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1580,13 +1592,13 @@
         <v>722</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E47">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1597,302 +1609,225 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>135</v>
+        <v>-10</v>
       </c>
       <c r="E48">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>180</v>
+        <v>-2</v>
       </c>
       <c r="E49">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>-135</v>
+        <v>-21</v>
       </c>
       <c r="E50">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51">
         <v>723</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52">
         <v>723</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53">
         <v>723</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>-45</v>
+        <v>-5</v>
       </c>
       <c r="E53">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54">
+        <v>723</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>-21</v>
+      </c>
+      <c r="E54">
+        <v>403</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55">
+        <v>723</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>403</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56">
+        <v>723</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>403</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57">
+        <v>723</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54">
-        <v>724</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>402</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55">
-        <v>724</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55">
-        <v>-45</v>
-      </c>
-      <c r="E55">
-        <v>402</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56">
-        <v>724</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56">
-        <v>-90</v>
-      </c>
-      <c r="E56">
-        <v>402</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57">
-        <v>724</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57">
-        <v>-135</v>
-      </c>
       <c r="E57">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D58">
-        <v>180</v>
+        <v>-7</v>
       </c>
       <c r="E58">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59">
-        <v>724</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59">
-        <v>135</v>
-      </c>
-      <c r="E59">
-        <v>402</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60">
-        <v>724</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60">
-        <v>90</v>
-      </c>
-      <c r="E60">
-        <v>402</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61">
-        <v>724</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61">
-        <v>45</v>
-      </c>
-      <c r="E61">
-        <v>402</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62">
-        <v>724</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>402</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C62454-65C4-4FC2-BEC8-2CD713B6B41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70655363-B9BE-4C3D-B2AF-42BE754FCC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85000DB3-483B-430B-ACBD-6A35315508AA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DD074C4-EC2C-4EB8-96CC-AB4FB921D811}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,11 +141,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>샷건 6불릿 발사</t>
+    <t>샷건 8불릿 발사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>샷건 6불릿 발사</t>
+    <t>샷건 8불릿 발사</t>
   </si>
   <si>
     <t>샷건 8불릿 발사 랜덤1</t>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>샷건 8불릿 발사 랜덤3</t>
+  </si>
+  <si>
+    <t>3발 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -318,7 +322,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A572BF72-9417-4410-8F3E-1BC776360B8B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1D6FE141-4FD3-4F5D-BA66-D97EE1FBC3BE}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -337,15 +341,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B8FFAC2-4B1B-4F53-9CC9-9D6B46360EFF}" name="ShootTable" displayName="ShootTable" ref="B2:G58" totalsRowShown="0">
-  <autoFilter ref="B2:G58" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8827F684-ACC8-462A-8402-D26CEF2806FE}" name="ShootTable" displayName="ShootTable" ref="B2:G63" totalsRowShown="0">
+  <autoFilter ref="B2:G63" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B6AFA695-F075-4D51-9C56-B2DBCE644C0D}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{46F4DE56-0DEC-4080-A6BA-B03E405CEF51}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{FC32B5A1-24F5-4676-91F7-57B484803B26}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{70E924AD-DCEB-42F1-8132-6D2063181016}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{6700E60F-DDF5-46AA-A644-B7FC663C8F40}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{390D32E8-5235-4AA2-B5B6-E1257C7B28C3}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{6BDA0132-B925-4D93-B727-20DFFA331C48}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{D9A53B72-1CAD-4AC6-A984-6AC4BD6430AD}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E4C02A87-63B8-439F-99B8-E3733E92C47E}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{2E49612B-C96E-4558-BE1B-B9F960BB6BAE}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{C6261C35-17A6-46FF-BCAE-EFCC8A22E16F}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{AA5EFA5F-4200-423D-BD47-3B94A4D86320}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,14 +651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35942F2-44B0-434D-A328-EB24ED6D612A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE7114-8B87-4D6F-B0D3-279BA89A7A28}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:I58"/>
+  <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -721,7 +725,7 @@
         <v>401</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -741,7 +745,7 @@
         <v>401</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -761,7 +765,7 @@
         <v>401</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -781,7 +785,7 @@
         <v>401</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -801,7 +805,7 @@
         <v>401</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -821,7 +825,7 @@
         <v>401</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -841,7 +845,7 @@
         <v>401</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -861,7 +865,7 @@
         <v>401</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -884,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -1218,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -1235,7 +1239,7 @@
         <v>29</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>-35</v>
       </c>
       <c r="E29">
         <v>400</v>
@@ -1244,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -1255,7 +1259,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="E30">
         <v>400</v>
@@ -1275,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>-15</v>
       </c>
       <c r="E31">
         <v>400</v>
@@ -1295,7 +1299,7 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="E32">
         <v>400</v>
@@ -1315,7 +1319,7 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>400</v>
@@ -1335,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="D34">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>400</v>
@@ -1349,42 +1353,42 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>-17</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -1392,19 +1396,19 @@
         <v>721</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>-26</v>
       </c>
       <c r="E37">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -1412,19 +1416,19 @@
         <v>721</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="E38">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -1435,16 +1439,16 @@
         <v>32</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="E39">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -1455,16 +1459,16 @@
         <v>32</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -1475,16 +1479,16 @@
         <v>32</v>
       </c>
       <c r="D41">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -1495,56 +1499,56 @@
         <v>32</v>
       </c>
       <c r="D42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>14</v>
       </c>
       <c r="E43">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44">
-        <v>-9</v>
+        <v>22</v>
       </c>
       <c r="E44">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -1552,19 +1556,19 @@
         <v>722</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -1572,19 +1576,19 @@
         <v>722</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -1595,16 +1599,16 @@
         <v>34</v>
       </c>
       <c r="D47">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -1615,19 +1619,19 @@
         <v>34</v>
       </c>
       <c r="D48">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="E48">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>722</v>
       </c>
@@ -1635,19 +1639,19 @@
         <v>34</v>
       </c>
       <c r="D49">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>722</v>
       </c>
@@ -1655,62 +1659,59 @@
         <v>34</v>
       </c>
       <c r="D50">
-        <v>-21</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>-23</v>
       </c>
       <c r="E51">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="E52">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>6</v>
-      </c>
-      <c r="I52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>723</v>
       </c>
@@ -1721,16 +1722,16 @@
         <v>-5</v>
       </c>
       <c r="E53">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54">
         <v>723</v>
       </c>
@@ -1738,19 +1739,19 @@
         <v>35</v>
       </c>
       <c r="D54">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="E54">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55">
         <v>723</v>
       </c>
@@ -1758,19 +1759,19 @@
         <v>35</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="E55">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56">
         <v>723</v>
       </c>
@@ -1781,16 +1782,16 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57">
         <v>723</v>
       </c>
@@ -1798,19 +1799,19 @@
         <v>35</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58">
         <v>723</v>
       </c>
@@ -1818,16 +1819,116 @@
         <v>35</v>
       </c>
       <c r="D58">
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59">
+        <v>723</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>-4</v>
+      </c>
+      <c r="E59">
+        <v>402</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60">
+        <v>723</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>-8</v>
+      </c>
+      <c r="E60">
+        <v>402</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61">
+        <v>724</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>-30</v>
+      </c>
+      <c r="E61">
+        <v>402</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62">
+        <v>724</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>402</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63">
+        <v>724</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>402</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ShootGameData.xlsx
+++ b/_GameData/ShootGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70655363-B9BE-4C3D-B2AF-42BE754FCC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD888B8-E414-46F1-A40C-2DEA281134A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DD074C4-EC2C-4EB8-96CC-AB4FB921D811}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D97AD457-DC4F-43CC-B39A-B9AAA6FF874A}"/>
   </bookViews>
   <sheets>
     <sheet name="ShootGameData" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1D6FE141-4FD3-4F5D-BA66-D97EE1FBC3BE}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3BBCA8E5-CBEC-453B-96CA-170E746EFBEF}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
@@ -341,15 +341,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8827F684-ACC8-462A-8402-D26CEF2806FE}" name="ShootTable" displayName="ShootTable" ref="B2:G63" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D4E893C-3351-4E51-812E-2890485B6EDB}" name="ShootTable" displayName="ShootTable" ref="B2:G63" totalsRowShown="0">
   <autoFilter ref="B2:G63" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6BDA0132-B925-4D93-B727-20DFFA331C48}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{D9A53B72-1CAD-4AC6-A984-6AC4BD6430AD}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{E4C02A87-63B8-439F-99B8-E3733E92C47E}" name="ShootAngle"/>
-    <tableColumn id="6" xr3:uid="{2E49612B-C96E-4558-BE1B-B9F960BB6BAE}" name="ProjectileDataId"/>
-    <tableColumn id="4" xr3:uid="{C6261C35-17A6-46FF-BCAE-EFCC8A22E16F}" name="MaxBounceCount"/>
-    <tableColumn id="5" xr3:uid="{AA5EFA5F-4200-423D-BD47-3B94A4D86320}" name="InitalSpd"/>
+    <tableColumn id="1" xr3:uid="{82CE5BDE-17E7-4EE1-B0CE-8E07F8169C35}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{A082BAAD-8FA4-4E51-8529-89A16B6A26B8}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C88FB8D3-69F2-4C68-A73F-12B66B790449}" name="ShootAngle"/>
+    <tableColumn id="6" xr3:uid="{E971A032-C6B3-4FD0-8C9B-72DF7897E3FA}" name="ProjectileDataId"/>
+    <tableColumn id="4" xr3:uid="{FA2F7DAA-EB14-40A8-B127-F317FA11A21D}" name="MaxBounceCount"/>
+    <tableColumn id="5" xr3:uid="{E9362B74-AFE9-413E-858C-DCA06B5B7D4F}" name="InitalSpd"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -651,14 +651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE7114-8B87-4D6F-B0D3-279BA89A7A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86F8C12-76A3-4BF7-B1A5-5F513440166A}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -725,10 +725,10 @@
         <v>401</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -745,10 +745,10 @@
         <v>401</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -765,10 +765,10 @@
         <v>401</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -785,10 +785,10 @@
         <v>401</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -805,10 +805,10 @@
         <v>401</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -825,10 +825,10 @@
         <v>401</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -845,10 +845,10 @@
         <v>401</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -865,10 +865,10 @@
         <v>401</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -1225,10 +1225,10 @@
         <v>403</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:7">
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
